--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,262 +423,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-323406.1182482042</v>
+        <v>1.773682572721553</v>
       </c>
       <c r="B1" t="n">
-        <v>-323410.039113928</v>
+        <v>-0.01986414964943422</v>
       </c>
       <c r="C1" t="n">
-        <v>-323405.4526146813</v>
+        <v>1.37666879817116</v>
       </c>
       <c r="D1" t="n">
-        <v>-323407.2798685163</v>
+        <v>0.2139914957427274</v>
       </c>
       <c r="E1" t="n">
-        <v>-323406.5433348211</v>
+        <v>1.570796390217484</v>
       </c>
       <c r="F1" t="n">
-        <v>-323404.5474518859</v>
+        <v>0.2028861675801711</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-323406.1345611661</v>
+        <v>1.819174750423433</v>
       </c>
       <c r="B2" t="n">
-        <v>-323410.0386580008</v>
+        <v>-0.01986728270485704</v>
       </c>
       <c r="C2" t="n">
-        <v>-323405.4447837728</v>
+        <v>1.376687873749249</v>
       </c>
       <c r="D2" t="n">
-        <v>-323407.288155352</v>
+        <v>0.2139755373981553</v>
       </c>
       <c r="E2" t="n">
-        <v>-323406.5433348211</v>
+        <v>1.570796387865413</v>
       </c>
       <c r="F2" t="n">
-        <v>-323404.5637648477</v>
+        <v>0.248378347328999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-323406.2320523738</v>
+        <v>2.023009867087658</v>
       </c>
       <c r="B3" t="n">
-        <v>-323410.0359332414</v>
+        <v>-0.01988132087031512</v>
       </c>
       <c r="C3" t="n">
-        <v>-323405.3979838881</v>
+        <v>1.376773344985884</v>
       </c>
       <c r="D3" t="n">
-        <v>-323407.3376799961</v>
+        <v>0.2139040334343543</v>
       </c>
       <c r="E3" t="n">
-        <v>-323406.5433348215</v>
+        <v>1.570796377326574</v>
       </c>
       <c r="F3" t="n">
-        <v>-323404.6612560553</v>
+        <v>0.4522134731649076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-323406.4501512612</v>
+        <v>2.30978652320835</v>
       </c>
       <c r="B4" t="n">
-        <v>-323410.0298376456</v>
+        <v>-0.01990107123626786</v>
       </c>
       <c r="C4" t="n">
-        <v>-323405.2932872389</v>
+        <v>1.376893594900803</v>
       </c>
       <c r="D4" t="n">
-        <v>-323407.4484722412</v>
+        <v>0.2138034341461953</v>
       </c>
       <c r="E4" t="n">
-        <v>-323406.5433348225</v>
+        <v>1.570796362499429</v>
       </c>
       <c r="F4" t="n">
-        <v>-323404.8793549425</v>
+        <v>0.7389901421892868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-323406.7911772068</v>
+        <v>2.513621639872575</v>
       </c>
       <c r="B5" t="n">
-        <v>-323410.0203063898</v>
+        <v>-0.01991510940172594</v>
       </c>
       <c r="C5" t="n">
-        <v>-323405.1295804257</v>
+        <v>1.376979066137438</v>
       </c>
       <c r="D5" t="n">
-        <v>-323407.6217103102</v>
+        <v>0.2137319301823944</v>
       </c>
       <c r="E5" t="n">
-        <v>-323406.543334824</v>
+        <v>1.57079635196059</v>
       </c>
       <c r="F5" t="n">
-        <v>-323405.2203808877</v>
+        <v>0.9428252680251956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-323407.2296170476</v>
+        <v>2.559113817574454</v>
       </c>
       <c r="B6" t="n">
-        <v>-323410.0080525353</v>
+        <v>-0.01991824245714876</v>
       </c>
       <c r="C6" t="n">
-        <v>-323404.9191108412</v>
+        <v>1.376998141715527</v>
       </c>
       <c r="D6" t="n">
-        <v>-323407.8444337493</v>
+        <v>0.2137159718378223</v>
       </c>
       <c r="E6" t="n">
-        <v>-323406.5433348258</v>
+        <v>1.570796349608518</v>
       </c>
       <c r="F6" t="n">
-        <v>-323405.658820728</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-323407.7214025928</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-323409.994307734</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-323404.6830330724</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-323408.0942563196</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-323406.543334828</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-323406.1506062727</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-323408.2131881381</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-323409.9805629327</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-323404.4469553035</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-323408.3440788899</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-323406.5433348301</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-323406.6423918174</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-323408.6516279789</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-323409.9683090782</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-323404.236485719</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-323408.566802329</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-323406.5433348319</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-323407.0808316576</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-323408.9926539245</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-323409.9587778223</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-323404.0727789059</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-323408.740040398</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-323406.5433348334</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-323407.4218576028</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-323409.2107528119</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-323409.9526822265</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-323403.9680822567</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-323408.8508326431</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-323406.5433348344</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-323407.6399564901</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-323409.3082440197</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-323409.9499574671</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-323403.921282372</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-323408.9003572872</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-323406.5433348348</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-323407.7374476977</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-323409.3245569815</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-323409.9495015399</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-323403.9134514634</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-323408.9086441229</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-323406.5433348349</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-323407.7537606595</v>
+        <v>0.9883174477740224</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
@@ -423,122 +423,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.773682572721553</v>
+        <v>1.77368233250472</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.01986414964943422</v>
+        <v>0.002539946714806698</v>
       </c>
       <c r="C1" t="n">
-        <v>1.37666879817116</v>
+        <v>1.379315696670069</v>
       </c>
       <c r="D1" t="n">
-        <v>0.2139914957427274</v>
+        <v>0.1889405185927815</v>
       </c>
       <c r="E1" t="n">
-        <v>1.570796390217484</v>
+        <v>1.570796395407675</v>
       </c>
       <c r="F1" t="n">
-        <v>0.2028861675801711</v>
+        <v>0.2028859211499618</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.819174750423433</v>
+        <v>1.819293683204713</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01986728270485704</v>
+        <v>0.002378253947922411</v>
       </c>
       <c r="C2" t="n">
-        <v>1.376687873749249</v>
+        <v>1.380517981017872</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2139755373981553</v>
+        <v>0.1878999055330415</v>
       </c>
       <c r="E2" t="n">
-        <v>1.570796387865413</v>
+        <v>1.570796393670107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.248378347328999</v>
+        <v>0.2484972728326442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.023009867087658</v>
+        <v>2.023662773910207</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01988132087031512</v>
+        <v>0.001653763152656354</v>
       </c>
       <c r="C3" t="n">
-        <v>1.376773344985884</v>
+        <v>1.385905011990622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2139040334343543</v>
+        <v>0.1832372691161953</v>
       </c>
       <c r="E3" t="n">
-        <v>1.570796377326574</v>
+        <v>1.570796385884652</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4522134731649076</v>
+        <v>0.4528663679412378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.30978652320835</v>
+        <v>2.31119068080906</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.01990107123626786</v>
+        <v>0.000634473390142702</v>
       </c>
       <c r="C4" t="n">
-        <v>1.376893594900803</v>
+        <v>1.39348405310025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2138034341461953</v>
+        <v>0.1766773823694363</v>
       </c>
       <c r="E4" t="n">
-        <v>1.570796362499429</v>
+        <v>1.570796374931256</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7389901421892868</v>
+        <v>0.7403942810348323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.513621639872575</v>
+        <v>2.515559771514555</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.01991510940172594</v>
+        <v>-9.001740512335757e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.376979066137438</v>
+        <v>1.398871084073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2137319301823944</v>
+        <v>0.1720147459525901</v>
       </c>
       <c r="E5" t="n">
-        <v>1.57079635196059</v>
+        <v>1.570796367145801</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9428252680251956</v>
+        <v>0.9447633761434262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.559113817574454</v>
+        <v>2.561171122214548</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.01991824245714876</v>
+        <v>-0.000251710172007643</v>
       </c>
       <c r="C6" t="n">
-        <v>1.376998141715527</v>
+        <v>1.400073368420803</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2137159718378223</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="E6" t="n">
-        <v>1.570796349608518</v>
+        <v>1.570796365408233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9883174477740224</v>
+        <v>0.9903747278261079</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,121 +423,139 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
         <v>1.77368233250472</v>
       </c>
-      <c r="B1" t="n">
+      <c r="C1" t="n">
         <v>0.002539946714806698</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>1.379315696670069</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>0.1889405185927815</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>1.570796395407675</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>0.2028859211499618</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.2213476497465884</v>
+      </c>
+      <c r="B2" t="n">
         <v>1.819293683204713</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.002378253947922411</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1.380517981017872</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1878999055330415</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.570796393670107</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2484972728326442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.4426952994931767</v>
+      </c>
+      <c r="B3" t="n">
         <v>2.023662773910207</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.001653763152656354</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.385905011990622</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.1832372691161953</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.570796385884652</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.4528663679412378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.664042949239765</v>
+      </c>
+      <c r="B4" t="n">
         <v>2.31119068080906</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.000634473390142702</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1.39348405310025</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.1766773823694363</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.570796374931256</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.7403942810348323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.8853905989863534</v>
+      </c>
+      <c r="B5" t="n">
         <v>2.515559771514555</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>-9.001740512335757e-05</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1.398871084073</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.1720147459525901</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1.570796367145801</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.9447633761434262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1.106738248732942</v>
+      </c>
+      <c r="B6" t="n">
         <v>2.561171122214548</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>-0.000251710172007643</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.400073368420803</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.1709741328928501</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.570796365408233</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.9903747278261079</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,137 +426,390 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>1.77368233250472</v>
+        <v>-2.561171122214548</v>
       </c>
       <c r="C1" t="n">
-        <v>0.002539946714806698</v>
+        <v>1.571048036966904</v>
       </c>
       <c r="D1" t="n">
-        <v>1.379315696670069</v>
+        <v>1.400073368420803</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1889405185927815</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="F1" t="n">
-        <v>1.570796395407675</v>
+        <v>-3.861333675025946e-08</v>
       </c>
       <c r="G1" t="n">
-        <v>0.2028859211499618</v>
+        <v>0.9903747278261085</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2213476497465884</v>
+        <v>0.2107455406146856</v>
       </c>
       <c r="B2" t="n">
-        <v>1.819293683204713</v>
+        <v>-2.555848965682979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002378253947922411</v>
+        <v>1.570615983513027</v>
       </c>
       <c r="D2" t="n">
-        <v>1.380517981017872</v>
+        <v>1.398460229945526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1878999055330415</v>
+        <v>0.1721552197852622</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570796393670107</v>
+        <v>-3.842581763890962e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2484972728326442</v>
+        <v>0.9850525714503057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4426952994931767</v>
+        <v>0.4214910812293712</v>
       </c>
       <c r="B3" t="n">
-        <v>2.023662773910207</v>
+        <v>-2.522657562997278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001653763152656354</v>
+        <v>1.567921500537126</v>
       </c>
       <c r="D3" t="n">
-        <v>1.385905011990622</v>
+        <v>1.388399960503409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1832372691161953</v>
+        <v>0.1795210179199698</v>
       </c>
       <c r="F3" t="n">
-        <v>1.570796385884652</v>
+        <v>-3.725636288365308e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4528663679412378</v>
+        <v>0.9518611697360345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.664042949239765</v>
+        <v>0.6322366218440568</v>
       </c>
       <c r="B4" t="n">
-        <v>2.31119068080906</v>
+        <v>-2.444161474445256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000634473390142702</v>
+        <v>1.56154917646631</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39348405310025</v>
+        <v>1.364607901804851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1766773823694363</v>
+        <v>0.1969407801431379</v>
       </c>
       <c r="F4" t="n">
-        <v>1.570796374931256</v>
+        <v>-3.449065788529992e-08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7403942810348323</v>
+        <v>0.873365083481396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8853905989863534</v>
+        <v>0.8429821624587425</v>
       </c>
       <c r="B5" t="n">
-        <v>2.515559771514555</v>
+        <v>-2.312809919049192</v>
       </c>
       <c r="C5" t="n">
-        <v>-9.001740512335757e-05</v>
+        <v>1.550886037784759</v>
       </c>
       <c r="D5" t="n">
-        <v>1.398871084073</v>
+        <v>1.324795422307113</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1720147459525901</v>
+        <v>0.2260901671361768</v>
       </c>
       <c r="F5" t="n">
-        <v>1.570796367145801</v>
+        <v>-2.986266078863764e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9447633761434262</v>
+        <v>0.7420135319296621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.106738248732942</v>
+        <v>1.053727703073428</v>
       </c>
       <c r="B6" t="n">
-        <v>2.561171122214548</v>
+        <v>-2.129289331443423</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.000251710172007643</v>
+        <v>1.535987809357549</v>
       </c>
       <c r="D6" t="n">
-        <v>1.400073368420803</v>
+        <v>1.269170579423171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1709741328928501</v>
+        <v>0.2668168461098673</v>
       </c>
       <c r="F6" t="n">
-        <v>1.570796365408233</v>
+        <v>-2.339655758021308e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9903747278261079</v>
+        <v>0.558492949695081</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.264473243688114</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.900875918751935</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.517445174754468</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.199938781730575</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3175060894984869</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.534871563180218e-08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3300795436886814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.475218784302799</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.639788217465948</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.496250036573842</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.120803451180303</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3754463736539357</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-6.149638576147254e-09</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.06899185004407737</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.685964324917485</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.361539650321506</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.473661776766355</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.036466685305622</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.437194977539862</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.654078817305617e-09</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.2092567089567264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.896709865532171</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.083291083177064</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.451073516958867</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9521299194309416</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4989435814257883</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.345779598871388e-08</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.4875052679575304</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.107455406146856</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8222033818910772</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.429878378778242</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8729945888806701</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5568838655812371</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.265687304436881e-08</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.748592961602134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.318200946761542</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.5937899691995894</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.411335744175161</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8037627911880737</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6075731089698566</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.070471499277971e-08</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.977006367608534</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.528946487376227</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.410269381593821</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.39643751574795</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7481379483041316</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6482997879435473</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.717081820120427e-08</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.160526949843115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.739692027990913</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2789178261977563</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.3857743770664</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083254688063935</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6774491749365862</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.179881529786655e-08</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1.291878501394849</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.950437568605599</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2004217376457329</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.379402052995584</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6845334101078362</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6948689371597545</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.456452029621971e-08</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.370374587649487</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.161183109220284</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.1672303349600339</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.376707570019682</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6744731406657185</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7022347352944619</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.573397505147625e-08</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1.403565989363758</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.37192864983497</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.1619081784284635</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.376275516565805</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6728600021904421</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7034158221868742</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.592149416282609e-08</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.40888814573956</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
@@ -435,10 +435,10 @@
         <v>1.400073368420803</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1709741328928501</v>
+        <v>1.399822193902046</v>
       </c>
       <c r="F1" t="n">
-        <v>-3.861333675025946e-08</v>
+        <v>-1.570796365408233</v>
       </c>
       <c r="G1" t="n">
         <v>0.9903747278261085</v>
@@ -458,10 +458,10 @@
         <v>1.398460229945526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1721552197852622</v>
+        <v>1.398641107009634</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.842581763890962e-08</v>
+        <v>-1.570796365220714</v>
       </c>
       <c r="G2" t="n">
         <v>0.9850525714503057</v>
@@ -481,10 +481,10 @@
         <v>1.388399960503409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1795210179199698</v>
+        <v>1.391275308874927</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.725636288365308e-08</v>
+        <v>-1.570796364051259</v>
       </c>
       <c r="G3" t="n">
         <v>0.9518611697360345</v>
@@ -504,10 +504,10 @@
         <v>1.364607901804851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1969407801431379</v>
+        <v>1.373855546651759</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.449065788529992e-08</v>
+        <v>-1.570796361285554</v>
       </c>
       <c r="G4" t="n">
         <v>0.873365083481396</v>
@@ -527,10 +527,10 @@
         <v>1.324795422307113</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2260901671361768</v>
+        <v>1.34470615965872</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.986266078863764e-08</v>
+        <v>-1.570796356657557</v>
       </c>
       <c r="G5" t="n">
         <v>0.7420135319296621</v>
@@ -550,10 +550,10 @@
         <v>1.269170579423171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2668168461098673</v>
+        <v>1.303979480685029</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.339655758021308e-08</v>
+        <v>-1.570796350191454</v>
       </c>
       <c r="G6" t="n">
         <v>0.558492949695081</v>
@@ -573,10 +573,10 @@
         <v>1.199938781730575</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3175060894984869</v>
+        <v>1.25329023729641</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.534871563180218e-08</v>
+        <v>-1.570796342143612</v>
       </c>
       <c r="G7" t="n">
         <v>0.3300795436886814</v>
@@ -596,10 +596,10 @@
         <v>1.120803451180303</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3754463736539357</v>
+        <v>1.195349953140961</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.149638576147254e-09</v>
+        <v>-1.570796332944535</v>
       </c>
       <c r="G8" t="n">
         <v>0.06899185004407737</v>
@@ -619,10 +619,10 @@
         <v>1.036466685305622</v>
       </c>
       <c r="E9" t="n">
-        <v>0.437194977539862</v>
+        <v>1.133601349255035</v>
       </c>
       <c r="F9" t="n">
-        <v>3.654078817305617e-09</v>
+        <v>-1.570796323140818</v>
       </c>
       <c r="G9" t="n">
         <v>-0.2092567089567264</v>
@@ -642,10 +642,10 @@
         <v>0.9521299194309416</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4989435814257883</v>
+        <v>1.071852745369108</v>
       </c>
       <c r="F10" t="n">
-        <v>1.345779598871388e-08</v>
+        <v>-1.570796313337101</v>
       </c>
       <c r="G10" t="n">
         <v>-0.4875052679575304</v>
@@ -665,10 +665,10 @@
         <v>0.8729945888806701</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5568838655812371</v>
+        <v>1.013912461213659</v>
       </c>
       <c r="F11" t="n">
-        <v>2.265687304436881e-08</v>
+        <v>-1.570796304138024</v>
       </c>
       <c r="G11" t="n">
         <v>-0.748592961602134</v>
@@ -688,10 +688,10 @@
         <v>0.8037627911880737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6075731089698566</v>
+        <v>0.9632232178250399</v>
       </c>
       <c r="F12" t="n">
-        <v>3.070471499277971e-08</v>
+        <v>-1.570796296090182</v>
       </c>
       <c r="G12" t="n">
         <v>-0.977006367608534</v>
@@ -711,10 +711,10 @@
         <v>0.7481379483041316</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6482997879435473</v>
+        <v>0.9224965388513493</v>
       </c>
       <c r="F13" t="n">
-        <v>3.717081820120427e-08</v>
+        <v>-1.570796289624078</v>
       </c>
       <c r="G13" t="n">
         <v>-1.160526949843115</v>
@@ -734,10 +734,10 @@
         <v>0.7083254688063935</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6774491749365862</v>
+        <v>0.8933471518583104</v>
       </c>
       <c r="F14" t="n">
-        <v>4.179881529786655e-08</v>
+        <v>-1.570796284996081</v>
       </c>
       <c r="G14" t="n">
         <v>-1.291878501394849</v>
@@ -757,10 +757,10 @@
         <v>0.6845334101078362</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6948689371597545</v>
+        <v>0.8759273896351421</v>
       </c>
       <c r="F15" t="n">
-        <v>4.456452029621971e-08</v>
+        <v>-1.570796282230376</v>
       </c>
       <c r="G15" t="n">
         <v>-1.370374587649487</v>
@@ -780,10 +780,10 @@
         <v>0.6744731406657185</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7022347352944619</v>
+        <v>0.8685615915004347</v>
       </c>
       <c r="F16" t="n">
-        <v>4.573397505147625e-08</v>
+        <v>-1.570796281060922</v>
       </c>
       <c r="G16" t="n">
         <v>-1.403565989363758</v>
@@ -803,10 +803,10 @@
         <v>0.6728600021904421</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7034158221868742</v>
+        <v>0.8673805046080224</v>
       </c>
       <c r="F17" t="n">
-        <v>4.592149416282609e-08</v>
+        <v>-1.570796280873402</v>
       </c>
       <c r="G17" t="n">
         <v>-1.40888814573956</v>

--- a/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
+++ b/dynamics/src/dynamics/tested_state_traj/tested_robot_traj_4_.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,19 +426,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>-2.561171122214548</v>
+        <v>2.561171122214548</v>
       </c>
       <c r="C1" t="n">
-        <v>1.571048036966904</v>
+        <v>-0.0002517101720076429</v>
       </c>
       <c r="D1" t="n">
-        <v>1.400073368420803</v>
+        <v>-1.400073368420803</v>
       </c>
       <c r="E1" t="n">
-        <v>1.399822193902046</v>
+        <v>0.1709741328928501</v>
       </c>
       <c r="F1" t="n">
-        <v>-1.570796365408233</v>
+        <v>1.570796365408233</v>
       </c>
       <c r="G1" t="n">
         <v>0.9903747278261085</v>
@@ -446,369 +446,1151 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2107455406146856</v>
+        <v>0.2023157189900982</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.555848965682979</v>
+        <v>2.560984893344261</v>
       </c>
       <c r="C2" t="n">
-        <v>1.570615983513027</v>
+        <v>-0.0002365920847921259</v>
       </c>
       <c r="D2" t="n">
-        <v>1.398460229945526</v>
+        <v>-1.400016922701087</v>
       </c>
       <c r="E2" t="n">
-        <v>1.398641107009634</v>
+        <v>0.1710154605908198</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.570796365220714</v>
+        <v>1.570796365401672</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9850525714503057</v>
+        <v>0.9901884989612726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4214910812293712</v>
+        <v>0.4046314379801964</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.522657562997278</v>
+        <v>2.559726251520413</v>
       </c>
       <c r="C3" t="n">
-        <v>1.567921500537126</v>
+        <v>-0.0001344153554978073</v>
       </c>
       <c r="D3" t="n">
-        <v>1.388399960503409</v>
+        <v>-1.399635430059786</v>
       </c>
       <c r="E3" t="n">
-        <v>1.391275308874927</v>
+        <v>0.1712947769453033</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.570796364051259</v>
+        <v>1.570796365357325</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9518611697360345</v>
+        <v>0.9889298571742619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6322366218440568</v>
+        <v>0.6069471569702946</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.444161474445256</v>
+        <v>2.556443936971051</v>
       </c>
       <c r="C4" t="n">
-        <v>1.56154917646631</v>
+        <v>0.0001320434247639403</v>
       </c>
       <c r="D4" t="n">
-        <v>1.364607901804851</v>
+        <v>-1.398640564941459</v>
       </c>
       <c r="E4" t="n">
-        <v>1.373855546651759</v>
+        <v>0.172023184437272</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.570796361285554</v>
+        <v>1.570796365241677</v>
       </c>
       <c r="G4" t="n">
-        <v>0.873365083481396</v>
+        <v>0.9856475427209649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8429821624587425</v>
+        <v>0.8092628759603927</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.312809919049192</v>
+        <v>2.55031383166614</v>
       </c>
       <c r="C5" t="n">
-        <v>1.550886037784759</v>
+        <v>0.0006296862794806502</v>
       </c>
       <c r="D5" t="n">
-        <v>1.324795422307113</v>
+        <v>-1.396782538281364</v>
       </c>
       <c r="E5" t="n">
-        <v>1.34470615965872</v>
+        <v>0.1733835703976982</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.570796356657557</v>
+        <v>1.570796365025691</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7420135319296621</v>
+        <v>0.9795174375954664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.053727703073428</v>
+        <v>1.011578594950491</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.129289331443423</v>
+        <v>2.540633431415739</v>
       </c>
       <c r="C6" t="n">
-        <v>1.535987809357549</v>
+        <v>0.001415542602625764</v>
       </c>
       <c r="D6" t="n">
-        <v>1.269170579423171</v>
+        <v>-1.393848422005871</v>
       </c>
       <c r="E6" t="n">
-        <v>1.303979480685029</v>
+        <v>0.175531833753207</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.570796350191454</v>
+        <v>1.570796364684615</v>
       </c>
       <c r="G6" t="n">
-        <v>0.558492949695081</v>
+        <v>0.9698370376283864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.264473243688114</v>
+        <v>1.213894313940589</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.900875918751935</v>
+        <v>2.52681631796818</v>
       </c>
       <c r="C7" t="n">
-        <v>1.517445174754468</v>
+        <v>0.002537217914545635</v>
       </c>
       <c r="D7" t="n">
-        <v>1.199938781730575</v>
+        <v>-1.389660473532857</v>
       </c>
       <c r="E7" t="n">
-        <v>1.25329023729641</v>
+        <v>0.178598111771729</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.570796342143612</v>
+        <v>1.570796364197788</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3300795436886814</v>
+        <v>0.9560199245852193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.475218784302799</v>
+        <v>1.416210032930687</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.639788217465948</v>
+        <v>2.508386631108243</v>
       </c>
       <c r="C8" t="n">
-        <v>1.496250036573842</v>
+        <v>0.004033342617846537</v>
       </c>
       <c r="D8" t="n">
-        <v>1.120803451180303</v>
+        <v>-1.38407446027212</v>
       </c>
       <c r="E8" t="n">
-        <v>1.195349953140961</v>
+        <v>0.182688006808152</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.570796332944535</v>
+        <v>1.570796363548442</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06899185004407737</v>
+        <v>0.9375902382646738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.685964324917485</v>
+        <v>1.618525751920785</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.361539650321506</v>
+        <v>2.484973540755338</v>
       </c>
       <c r="C9" t="n">
-        <v>1.473661776766355</v>
+        <v>0.005934020753281667</v>
       </c>
       <c r="D9" t="n">
-        <v>1.036466685305622</v>
+        <v>-1.376977984125773</v>
       </c>
       <c r="E9" t="n">
-        <v>1.133601349255035</v>
+        <v>0.1878838130499733</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.570796323140818</v>
+        <v>1.570796362723513</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2092567089567264</v>
+        <v>0.9141771485970114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.896709865532171</v>
+        <v>1.820841470910884</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.083291083177064</v>
+        <v>2.456305719061678</v>
       </c>
       <c r="C10" t="n">
-        <v>1.451073516958867</v>
+        <v>0.008261278755638136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9521299194309416</v>
+        <v>-1.368288805988657</v>
       </c>
       <c r="E10" t="n">
-        <v>1.071852745369108</v>
+        <v>0.1942457432629517</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.570796313337101</v>
+        <v>1.570796361713441</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4875052679575304</v>
+        <v>0.8855093277423864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.107455406146856</v>
+        <v>2.023157189900982</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8222033818910772</v>
+        <v>2.422205812510458</v>
       </c>
       <c r="C11" t="n">
-        <v>1.429878378778242</v>
+        <v>0.011029514209624</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8729945888806701</v>
+        <v>-1.35795317024874</v>
       </c>
       <c r="E11" t="n">
-        <v>1.013912461213659</v>
+        <v>0.20181315553676</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.570796304138024</v>
+        <v>1.570796360511976</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.748592961602134</v>
+        <v>0.8514094221891848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.318200946761542</v>
+        <v>2.22547290889108</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5937899691995894</v>
+        <v>2.382584914014032</v>
       </c>
       <c r="C12" t="n">
-        <v>1.411335744175161</v>
+        <v>0.01424594460575524</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8037627911880737</v>
+        <v>-1.345944129287523</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9632232178250399</v>
+        <v>0.2106057800306365</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.570796296090182</v>
+        <v>1.570796359115986</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.977006367608534</v>
+        <v>0.8117885248523639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.528946487376227</v>
+        <v>2.427788627881178</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.410269381593821</v>
+        <v>2.337437035012095</v>
       </c>
       <c r="C13" t="n">
-        <v>1.39643751574795</v>
+        <v>0.01791105609624278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7481379483041316</v>
+        <v>-1.332259867980444</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9224965388513493</v>
+        <v>0.2206249457190377</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.570796289624078</v>
+        <v>1.570796357525261</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.160526949843115</v>
+        <v>0.766640647171791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.739692027990913</v>
+        <v>2.630104346871276</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2789178261977563</v>
+        <v>2.286833577569851</v>
       </c>
       <c r="C14" t="n">
-        <v>1.3857743770664</v>
+        <v>0.02201905225087948</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7083254688063935</v>
+        <v>-1.316922028197282</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8933471518583104</v>
+        <v>0.2318548071372903</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.570796284996081</v>
+        <v>1.570796355742316</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.291878501394849</v>
+        <v>0.7160371912105836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.950437568605599</v>
+        <v>2.832420065861375</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2004217376457329</v>
+        <v>2.230917806476201</v>
       </c>
       <c r="C15" t="n">
-        <v>1.379402052995584</v>
+        <v>0.02655830281292715</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6845334101078362</v>
+        <v>-1.299974033302561</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8759273896351421</v>
+        <v>0.2442635711272432</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.570796282230376</v>
+        <v>1.570796353772198</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.370374587649487</v>
+        <v>0.6601214217534481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.161183109220284</v>
+        <v>3.034735784851473</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1672303349600339</v>
+        <v>2.169899321341914</v>
       </c>
       <c r="C16" t="n">
-        <v>1.376707570019682</v>
+        <v>0.03151179245500355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6744731406657185</v>
+        <v>-1.281479412655955</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8685615915004347</v>
+        <v>0.2578047235829195</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.570796281060922</v>
+        <v>1.570796351622293</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.403565989363758</v>
+        <v>0.599102938405019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.37192864983497</v>
+        <v>3.237051503841571</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1619081784284635</v>
+        <v>2.104048528697805</v>
       </c>
       <c r="C17" t="n">
-        <v>1.376275516565805</v>
+        <v>0.03685756953496942</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6728600021904421</v>
+        <v>-1.261520126112692</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8673805046080224</v>
+        <v>0.2724182561961692</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.570796280873402</v>
+        <v>1.570796349302128</v>
       </c>
       <c r="G17" t="n">
+        <v>0.5332521476881986</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.439367222831669</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.033691114092918</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04256919485181537</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.240194888523958</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2880318932023206</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.570796346823178</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4628947351424968</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.641682941821767</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.959202514192695</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.04861619040154909</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.217617494237299</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.304562318125833</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.570796344198672</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3884061374223684</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.843998660811865</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.88100238887716</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05496448813308218</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.193915141597031</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3219164005259488</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.570796341443395</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3102060143955548</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4.046314379801964</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.799549093339094</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0615768787041172</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.169226757444637</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3399924227423451</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.570796338573497</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.228752721241422</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.248630098792062</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.715334150182212</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.06841346023703467</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1.143701321619178</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3586813066407862</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.570796335606295</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1445377805493004</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4.45094581778216</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.628876721519342</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.07543208707478015</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.117496191457691</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3778678403587762</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.570796332560083</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05808035441682358</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.653261536772258</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.540718081070604</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.08258881853675118</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.090775426295598</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3974319050512104</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.570796329453931</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.03007828345173269</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.855577255762356</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.451416086261582</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.08983836767468421</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.063708111967108</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4172497016360274</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.570796326307494</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.1193802756471091</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5.057892974752455</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.361539650321506</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.09713455002854179</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.036466685305622</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.437194977539862</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.570796323140818</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.2092567089567264</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5.260208693742553</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.271663214381431</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1044307323823993</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.009225258644137</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4571402534436965</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.570796319974141</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.2991331422663436</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5.462524412732651</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.182361219572409</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1116802815203324</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.9821579443156467</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4769580500285135</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.570796316827705</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.38843513446172</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5.664840131722749</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.094202579123671</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1188370129823034</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.9554371791535541</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4965221147209476</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.570796313721553</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.4765937723302759</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5.867155850712847</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.007745150460801</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1258556398200489</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.9292320489920673</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5157086484389377</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.57079631067534</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.563051198462753</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6.069471569702945</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9235302073039198</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1326922213529663</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.9037066131666081</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5343975323373789</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.570796307708139</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.6472661391548745</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6.271787288693043</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8420769117658526</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1393046119240014</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.879018229014214</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5524735545537751</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.570796304838241</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.7287194323090079</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6.474103007683142</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7638767864503162</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1456529096555346</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.8553158763739451</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5698276369538913</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.570796302082964</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.806919555335822</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6.67641872667324</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6893881865500946</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1516999052052682</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.8327384820872871</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5863580618774035</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.570796299458457</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.8814081530559493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6.878734445663338</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6190307719452068</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1574115305221142</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.811413244498552</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6019716988835548</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.570796296979508</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.9517655656016516</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7.081050164653436</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5531799793011003</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.16275730760208</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.7914539579552897</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6165852314968041</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.570796294659343</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1.017616356318471</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7.283365883643534</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4921614941668118</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1677107972441565</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.7729593373086834</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6301263839524809</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.570796292509438</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1.078634839666901</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7.485681602633632</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4362457230731622</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1722500478062041</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.7560113424139627</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6425351479424337</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.57079629053932</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1.134550609124036</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7.687997321623731</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3856422656309171</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.176358043960841</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.7406735026308001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6537650093606866</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.570796288756375</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1.185154065085245</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7.890313040613829</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.3404943866289809</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1800231554513284</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.7269892413237214</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6637841750490876</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.570796287165649</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1.230301942765815</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8.092628759603928</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3008734881325537</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1832395858474598</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.7149802003625042</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6725767995429647</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.57079628576966</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1.269922840102639</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>8.294944478594026</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2667735815813357</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1860078213014454</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.704644564622588</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6801442118167719</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.570796284568195</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1.304022745655838</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8.497260197584124</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2381057598876755</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1883350793038019</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.6959553864854719</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6865061420297502</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.570796283558123</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1.332690566510461</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>8.699575916574222</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.2146926695347706</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.190235757439237</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.6888589103391249</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6917019482715718</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.570796282733194</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1.356103656178124</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8.90189163556432</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.196262982674833</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1917318821425378</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.6832728970783881</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6957918433079946</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.570796282083848</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1.374533342498669</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>9.104207354554418</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1824458692272697</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1928535574544581</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.6790849486053729</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.6988581213265178</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.57079628159702</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.388350455541841</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>9.306523073544517</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1727654689768716</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1936394137776031</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.6761508323298799</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.701006384682026</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.570796281255945</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.398030855508917</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9.508838792534615</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1666353636719609</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1941370566323198</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.6742928056697861</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7023667706424521</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.570796281039958</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1.404160960634415</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>9.711154511524713</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1633530491225974</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1944035154125815</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6732979405514584</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7030951781344209</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.570796280924311</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1.407443275087712</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9.913470230514811</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1620944072987469</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.194505692141876</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.672916447910158</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7033744944889049</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.570796280879964</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1.408701916874726</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10.11578594950491</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1619081784284635</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1945208102290914</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.6728600021904421</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7034158221868742</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.570796280873402</v>
+      </c>
+      <c r="G51" t="n">
         <v>-1.40888814573956</v>
       </c>
     </row>
